--- a/TrialForTreason/data/agents10.xlsx
+++ b/TrialForTreason/data/agents10.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC00D72-5E63-42C2-B3AC-10F38F52A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16428" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,20 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$A$22</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -78,25 +64,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,24 +433,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -203,26 +818,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -255,23 +853,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,76 +994,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -495,12 +1071,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1">
+    <row r="13" outlineLevel="1" spans="1:6">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1.5615810401889501</v>
+        <v>1.56158104018895</v>
       </c>
       <c r="C13">
         <v>-0.60818260700686</v>
@@ -508,8 +1084,12 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" t="str">
+        <f>IF(B13&lt;-1,"Ethos1",IF(B13&gt;2,"Ethos2","No ethoses"))</f>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -517,41 +1097,53 @@
         <v>-1.0912278829447</v>
       </c>
       <c r="C14">
-        <v>-0.62454013640662298</v>
+        <v>-0.624540136406623</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" t="str">
+        <f t="shared" ref="F14:F22" si="0">IF(B14&lt;-1,"Ethos1",IF(B14&gt;2,"Ethos2","No ethoses"))</f>
+        <v>Ethos1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>-1.1182832102556399</v>
+        <v>-1.11828321025564</v>
       </c>
       <c r="C15">
-        <v>-1.6583217791337099</v>
+        <v>-1.65832177913371</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethos1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>-1.8821643777572199</v>
+        <v>-1.88216437775722</v>
       </c>
       <c r="C16">
-        <v>5.9255494425680899E-2</v>
+        <v>0.0592554944256809</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethos1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>4</v>
       </c>
@@ -564,13 +1156,17 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.44523224255990101</v>
+        <v>0.445232242559901</v>
       </c>
       <c r="C18">
         <v>-0.955811887396812</v>
@@ -578,8 +1174,12 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
@@ -587,65 +1187,81 @@
         <v>-0.335146536121328</v>
       </c>
       <c r="C19">
-        <v>-0.99125054541921298</v>
+        <v>-0.991250545419213</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.61135094866150697</v>
+        <v>0.611350948661507</v>
       </c>
       <c r="C20">
-        <v>0.95718502971295905</v>
+        <v>0.957185029712959</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21">
-        <v>-0.18963577182319499</v>
+        <v>-0.189635771823195</v>
       </c>
       <c r="C21">
-        <v>8.8635884319310399E-3</v>
+        <v>0.00886358843193104</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22">
-        <v>0.42649995328496498</v>
+        <v>0.426499953284965</v>
       </c>
       <c r="C22">
-        <v>-0.62576642765303003</v>
+        <v>-0.62576642765303</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>No ethoses</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -653,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -661,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -669,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -677,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -685,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -693,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -701,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -934,9 +1550,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E22">
+  <sortState ref="A13:E22">
     <sortCondition ref="A13:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>